--- a/data/pca/factorExposure/factorExposure_2012-03-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01362468978751605</v>
+        <v>0.01496954808873715</v>
       </c>
       <c r="C2">
-        <v>-0.03142112876835865</v>
+        <v>0.02674253207146833</v>
       </c>
       <c r="D2">
-        <v>0.002057708446960231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.004940996016624035</v>
+      </c>
+      <c r="E2">
+        <v>-0.009016379872824503</v>
+      </c>
+      <c r="F2">
+        <v>0.01261225113269507</v>
+      </c>
+      <c r="G2">
+        <v>0.01661837275012393</v>
+      </c>
+      <c r="H2">
+        <v>-0.05184081642827558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07150524158486309</v>
+        <v>0.08649467059417063</v>
       </c>
       <c r="C4">
-        <v>-0.05117002899539978</v>
+        <v>0.03739282884013184</v>
       </c>
       <c r="D4">
-        <v>0.08225570498129885</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06558983770354711</v>
+      </c>
+      <c r="E4">
+        <v>-0.01570642239994526</v>
+      </c>
+      <c r="F4">
+        <v>0.0306041020857237</v>
+      </c>
+      <c r="G4">
+        <v>0.003767938488974084</v>
+      </c>
+      <c r="H4">
+        <v>0.04179740510091885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1066961439239992</v>
+        <v>0.1191355073043535</v>
       </c>
       <c r="C6">
-        <v>-0.05593730898878537</v>
+        <v>0.03480237913126594</v>
       </c>
       <c r="D6">
-        <v>-0.002722261870886279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01186443904355016</v>
+      </c>
+      <c r="E6">
+        <v>0.002795941184271016</v>
+      </c>
+      <c r="F6">
+        <v>0.05312943222960204</v>
+      </c>
+      <c r="G6">
+        <v>0.03400611537171865</v>
+      </c>
+      <c r="H6">
+        <v>-0.1103406353298957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04890699185180115</v>
+        <v>0.06359835629856672</v>
       </c>
       <c r="C7">
-        <v>-0.02922756035172932</v>
+        <v>0.02066338449493621</v>
       </c>
       <c r="D7">
-        <v>0.04523702974210475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04551604543204916</v>
+      </c>
+      <c r="E7">
+        <v>-0.03643632574957086</v>
+      </c>
+      <c r="F7">
+        <v>0.03448117195544317</v>
+      </c>
+      <c r="G7">
+        <v>-0.0363741174969438</v>
+      </c>
+      <c r="H7">
+        <v>0.003768645077636134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03944783899566143</v>
+        <v>0.04224382356852726</v>
       </c>
       <c r="C8">
-        <v>-0.01358383254702761</v>
+        <v>0.008503412503706443</v>
       </c>
       <c r="D8">
-        <v>0.05405468790387584</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02142305957555045</v>
+      </c>
+      <c r="E8">
+        <v>-0.0349051436097553</v>
+      </c>
+      <c r="F8">
+        <v>0.0514258653602074</v>
+      </c>
+      <c r="G8">
+        <v>0.05751024539201867</v>
+      </c>
+      <c r="H8">
+        <v>-0.005015940957001435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06665197633356844</v>
+        <v>0.07831378128877615</v>
       </c>
       <c r="C9">
-        <v>-0.04288863757294645</v>
+        <v>0.02808469505279961</v>
       </c>
       <c r="D9">
-        <v>0.07134817245449598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06427618561474618</v>
+      </c>
+      <c r="E9">
+        <v>-0.03971359611937821</v>
+      </c>
+      <c r="F9">
+        <v>0.02897977166499186</v>
+      </c>
+      <c r="G9">
+        <v>0.005854947843742101</v>
+      </c>
+      <c r="H9">
+        <v>0.04529264834941656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02878514784450622</v>
+        <v>0.03449073765222248</v>
       </c>
       <c r="C10">
-        <v>-0.03320743808207337</v>
+        <v>0.043654166799128</v>
       </c>
       <c r="D10">
-        <v>-0.1801829700104694</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1745309203927985</v>
+      </c>
+      <c r="E10">
+        <v>-0.04941615490282776</v>
+      </c>
+      <c r="F10">
+        <v>0.04586236260640562</v>
+      </c>
+      <c r="G10">
+        <v>-0.02823920367790004</v>
+      </c>
+      <c r="H10">
+        <v>-0.04847843265861495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06911908400640726</v>
+        <v>0.07587186616298421</v>
       </c>
       <c r="C11">
-        <v>-0.04820910187315912</v>
+        <v>0.02807705376795237</v>
       </c>
       <c r="D11">
-        <v>0.05662925541092285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06314562088740497</v>
+      </c>
+      <c r="E11">
+        <v>0.0003623047288251109</v>
+      </c>
+      <c r="F11">
+        <v>0.02724480357101286</v>
+      </c>
+      <c r="G11">
+        <v>-0.007156390897340058</v>
+      </c>
+      <c r="H11">
+        <v>0.08578743479250336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0576820325652853</v>
+        <v>0.06721314361177115</v>
       </c>
       <c r="C12">
-        <v>-0.05319410371788566</v>
+        <v>0.03751721304483828</v>
       </c>
       <c r="D12">
-        <v>0.04271111926758548</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04845559428277516</v>
+      </c>
+      <c r="E12">
+        <v>-0.01414168946886127</v>
+      </c>
+      <c r="F12">
+        <v>0.02027701273773096</v>
+      </c>
+      <c r="G12">
+        <v>0.001096444302036779</v>
+      </c>
+      <c r="H12">
+        <v>0.04229542394593278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05981311816522245</v>
+        <v>0.06534373453855803</v>
       </c>
       <c r="C13">
-        <v>-0.04087681935599109</v>
+        <v>0.02583730157383258</v>
       </c>
       <c r="D13">
-        <v>0.05997838606999865</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0427748545007083</v>
+      </c>
+      <c r="E13">
+        <v>-0.0165748827804067</v>
+      </c>
+      <c r="F13">
+        <v>0.005006965507934428</v>
+      </c>
+      <c r="G13">
+        <v>-0.01017818222219087</v>
+      </c>
+      <c r="H13">
+        <v>0.03880795912759424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03254203861902284</v>
+        <v>0.04069859572618875</v>
       </c>
       <c r="C14">
-        <v>-0.03151424565245023</v>
+        <v>0.02723212623497704</v>
       </c>
       <c r="D14">
-        <v>0.0008936125331860874</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.00731040555939029</v>
+      </c>
+      <c r="E14">
+        <v>-0.03084247791965636</v>
+      </c>
+      <c r="F14">
+        <v>0.01184888561360074</v>
+      </c>
+      <c r="G14">
+        <v>0.003852239271414039</v>
+      </c>
+      <c r="H14">
+        <v>0.0576555959543628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04021887345739814</v>
+        <v>0.03997120043288364</v>
       </c>
       <c r="C15">
-        <v>-0.01199336050443796</v>
+        <v>0.00378735630733554</v>
       </c>
       <c r="D15">
-        <v>0.01814849926057971</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004588128489475083</v>
+      </c>
+      <c r="E15">
+        <v>-0.04215820535775088</v>
+      </c>
+      <c r="F15">
+        <v>-0.007139070628624476</v>
+      </c>
+      <c r="G15">
+        <v>0.02451041623849668</v>
+      </c>
+      <c r="H15">
+        <v>0.03701524144690967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05970866140408255</v>
+        <v>0.07000805758890886</v>
       </c>
       <c r="C16">
-        <v>-0.04342081522550382</v>
+        <v>0.02846948945952148</v>
       </c>
       <c r="D16">
-        <v>0.0459609746499693</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06219811879705588</v>
+      </c>
+      <c r="E16">
+        <v>-0.007607004486607337</v>
+      </c>
+      <c r="F16">
+        <v>0.0243581459997822</v>
+      </c>
+      <c r="G16">
+        <v>-0.004919079612563773</v>
+      </c>
+      <c r="H16">
+        <v>0.05203516019763213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06208677734491609</v>
+        <v>0.06325138593714383</v>
       </c>
       <c r="C20">
-        <v>-0.03075272090473752</v>
+        <v>0.01334072673916542</v>
       </c>
       <c r="D20">
-        <v>0.05076945487780021</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.039025053420627</v>
+      </c>
+      <c r="E20">
+        <v>-0.03295134986153867</v>
+      </c>
+      <c r="F20">
+        <v>0.01891791289494292</v>
+      </c>
+      <c r="G20">
+        <v>0.0111468860603627</v>
+      </c>
+      <c r="H20">
+        <v>0.04382488781508335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02505150838246949</v>
+        <v>0.02557913664322794</v>
       </c>
       <c r="C21">
-        <v>0.001369858480141051</v>
+        <v>-0.009697123746504357</v>
       </c>
       <c r="D21">
-        <v>0.02424568149008595</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02813576415331095</v>
+      </c>
+      <c r="E21">
+        <v>-0.03962305941546558</v>
+      </c>
+      <c r="F21">
+        <v>-0.01324661065981629</v>
+      </c>
+      <c r="G21">
+        <v>0.007770410203196704</v>
+      </c>
+      <c r="H21">
+        <v>-0.04709698278444728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07681621180661534</v>
+        <v>0.0721039811056888</v>
       </c>
       <c r="C22">
-        <v>-0.06189648449674707</v>
+        <v>0.0394000923328429</v>
       </c>
       <c r="D22">
-        <v>0.1023153033843599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.07120040520291469</v>
+      </c>
+      <c r="E22">
+        <v>-0.5628342051818802</v>
+      </c>
+      <c r="F22">
+        <v>-0.2416549907851346</v>
+      </c>
+      <c r="G22">
+        <v>-0.07287292260412886</v>
+      </c>
+      <c r="H22">
+        <v>-0.1563175775138977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07780090770593744</v>
+        <v>0.07275225200896943</v>
       </c>
       <c r="C23">
-        <v>-0.06081715195733053</v>
+        <v>0.03808500502130149</v>
       </c>
       <c r="D23">
-        <v>0.1039040049238915</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.07203798766985287</v>
+      </c>
+      <c r="E23">
+        <v>-0.5622285316382686</v>
+      </c>
+      <c r="F23">
+        <v>-0.24028749385463</v>
+      </c>
+      <c r="G23">
+        <v>-0.07149738505571838</v>
+      </c>
+      <c r="H23">
+        <v>-0.1513800243888223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06997700018598424</v>
+        <v>0.07914142879907062</v>
       </c>
       <c r="C24">
-        <v>-0.05232702109324709</v>
+        <v>0.03380313308868532</v>
       </c>
       <c r="D24">
-        <v>0.05858787157368558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06086962006083987</v>
+      </c>
+      <c r="E24">
+        <v>-0.01869779114365823</v>
+      </c>
+      <c r="F24">
+        <v>0.03338944608660967</v>
+      </c>
+      <c r="G24">
+        <v>0.008803417369412264</v>
+      </c>
+      <c r="H24">
+        <v>0.05658965692194087</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06966454332676938</v>
+        <v>0.07744191418473889</v>
       </c>
       <c r="C25">
-        <v>-0.05726012366537551</v>
+        <v>0.03853831761639952</v>
       </c>
       <c r="D25">
-        <v>0.06676854725621409</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05326233615899903</v>
+      </c>
+      <c r="E25">
+        <v>-0.02231210458261059</v>
+      </c>
+      <c r="F25">
+        <v>0.02315222779330415</v>
+      </c>
+      <c r="G25">
+        <v>0.01649058958311402</v>
+      </c>
+      <c r="H25">
+        <v>0.05830575252609273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04450307269818533</v>
+        <v>0.04725539677043925</v>
       </c>
       <c r="C26">
-        <v>-0.01127499619937475</v>
+        <v>0.003179616085420696</v>
       </c>
       <c r="D26">
-        <v>0.01329412966608031</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01832457667413221</v>
+      </c>
+      <c r="E26">
+        <v>-0.05390010716373506</v>
+      </c>
+      <c r="F26">
+        <v>0.02082406258451511</v>
+      </c>
+      <c r="G26">
+        <v>-0.009367326286907951</v>
+      </c>
+      <c r="H26">
+        <v>0.05255861358042833</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0514877810178016</v>
+        <v>0.06177240880973042</v>
       </c>
       <c r="C28">
-        <v>-0.07581155057171583</v>
+        <v>0.08810242344953091</v>
       </c>
       <c r="D28">
-        <v>-0.3124035383453152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3069797438250321</v>
+      </c>
+      <c r="E28">
+        <v>-0.02846155836354242</v>
+      </c>
+      <c r="F28">
+        <v>0.05296068994819626</v>
+      </c>
+      <c r="G28">
+        <v>0.03453860754415818</v>
+      </c>
+      <c r="H28">
+        <v>-0.04077526041273488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03957276591961763</v>
+        <v>0.048267021963787</v>
       </c>
       <c r="C29">
-        <v>-0.03152010218833105</v>
+        <v>0.02656137183017716</v>
       </c>
       <c r="D29">
-        <v>0.00423992619227086</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.006958762127653579</v>
+      </c>
+      <c r="E29">
+        <v>-0.05373849058325052</v>
+      </c>
+      <c r="F29">
+        <v>0.0003091841487187332</v>
+      </c>
+      <c r="G29">
+        <v>-0.01197408929766286</v>
+      </c>
+      <c r="H29">
+        <v>0.07912692949225948</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1236128141661714</v>
+        <v>0.1308651414397183</v>
       </c>
       <c r="C30">
-        <v>-0.09468024378558941</v>
+        <v>0.06430615129184282</v>
       </c>
       <c r="D30">
-        <v>0.1150714333343761</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06976485918686838</v>
+      </c>
+      <c r="E30">
+        <v>-0.08887361576725905</v>
+      </c>
+      <c r="F30">
+        <v>-0.02687930620669417</v>
+      </c>
+      <c r="G30">
+        <v>0.07772139428642547</v>
+      </c>
+      <c r="H30">
+        <v>-0.04236774338528725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04181414744362764</v>
+        <v>0.04808958282709545</v>
       </c>
       <c r="C31">
-        <v>-0.02327089337846738</v>
+        <v>0.01477779476464201</v>
       </c>
       <c r="D31">
-        <v>0.02689336467449139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02733086326567789</v>
+      </c>
+      <c r="E31">
+        <v>-0.02736508272671854</v>
+      </c>
+      <c r="F31">
+        <v>0.009008556659597275</v>
+      </c>
+      <c r="G31">
+        <v>-0.03046804793152276</v>
+      </c>
+      <c r="H31">
+        <v>0.06302571593537208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0368222744366143</v>
+        <v>0.03866737857246893</v>
       </c>
       <c r="C32">
-        <v>-0.02475117057448184</v>
+        <v>0.01805410770702413</v>
       </c>
       <c r="D32">
-        <v>0.02698745072213599</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01334957650656836</v>
+      </c>
+      <c r="E32">
+        <v>-0.06611697917527683</v>
+      </c>
+      <c r="F32">
+        <v>-0.01956507860704279</v>
+      </c>
+      <c r="G32">
+        <v>0.02313416835076708</v>
+      </c>
+      <c r="H32">
+        <v>0.06916631429711889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08141128682310425</v>
+        <v>0.09513157273982908</v>
       </c>
       <c r="C33">
-        <v>-0.04456535736334849</v>
+        <v>0.02761723086722844</v>
       </c>
       <c r="D33">
-        <v>0.06498505445193838</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0485774836115058</v>
+      </c>
+      <c r="E33">
+        <v>-0.01608350196490611</v>
+      </c>
+      <c r="F33">
+        <v>0.003751886328407287</v>
+      </c>
+      <c r="G33">
+        <v>-0.007097791444384514</v>
+      </c>
+      <c r="H33">
+        <v>0.05811428719681568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05553887702448419</v>
+        <v>0.06194073111641332</v>
       </c>
       <c r="C34">
-        <v>-0.02900356483382741</v>
+        <v>0.01421604458047466</v>
       </c>
       <c r="D34">
-        <v>0.05701732510982913</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05467314197564807</v>
+      </c>
+      <c r="E34">
+        <v>-0.009813834774902335</v>
+      </c>
+      <c r="F34">
+        <v>0.01636298887292142</v>
+      </c>
+      <c r="G34">
+        <v>-0.002101721535664799</v>
+      </c>
+      <c r="H34">
+        <v>0.05705948253123706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03609280860285038</v>
+        <v>0.03925034037253115</v>
       </c>
       <c r="C35">
-        <v>-0.008905047946747019</v>
+        <v>0.003692167801943451</v>
       </c>
       <c r="D35">
-        <v>0.007740005434024489</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.008490385683519931</v>
+      </c>
+      <c r="E35">
+        <v>-0.0183633956370573</v>
+      </c>
+      <c r="F35">
+        <v>-0.01694788132660897</v>
+      </c>
+      <c r="G35">
+        <v>-0.01345221823914846</v>
+      </c>
+      <c r="H35">
+        <v>0.01774899437121495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02097622456480122</v>
+        <v>0.02813011844155284</v>
       </c>
       <c r="C36">
-        <v>-0.01747731734435481</v>
+        <v>0.01411411578284533</v>
       </c>
       <c r="D36">
-        <v>0.02216816170635718</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01532714684618311</v>
+      </c>
+      <c r="E36">
+        <v>-0.0441384974322326</v>
+      </c>
+      <c r="F36">
+        <v>0.0125956806230052</v>
+      </c>
+      <c r="G36">
+        <v>-0.01059024147591804</v>
+      </c>
+      <c r="H36">
+        <v>0.04505167765347801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03887728906384823</v>
+        <v>0.04424388573645763</v>
       </c>
       <c r="C38">
-        <v>-0.004316301615617807</v>
+        <v>-0.000108360927535363</v>
       </c>
       <c r="D38">
-        <v>0.0194354724114391</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01756793827458649</v>
+      </c>
+      <c r="E38">
+        <v>-0.05431484890431112</v>
+      </c>
+      <c r="F38">
+        <v>-0.01486258156042104</v>
+      </c>
+      <c r="G38">
+        <v>0.005997698828037484</v>
+      </c>
+      <c r="H38">
+        <v>0.03378256151283081</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0896434036407288</v>
+        <v>0.1020907628498788</v>
       </c>
       <c r="C39">
-        <v>-0.07409894057974782</v>
+        <v>0.05188780692388834</v>
       </c>
       <c r="D39">
-        <v>0.05743287805891877</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06005448370907674</v>
+      </c>
+      <c r="E39">
+        <v>-0.0003752013988025398</v>
+      </c>
+      <c r="F39">
+        <v>0.001997480774033332</v>
+      </c>
+      <c r="G39">
+        <v>0.02919479705371966</v>
+      </c>
+      <c r="H39">
+        <v>0.04863559659557928</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07333844072685158</v>
+        <v>0.070944117155813</v>
       </c>
       <c r="C40">
-        <v>-0.04146309654540686</v>
+        <v>0.02026055406407027</v>
       </c>
       <c r="D40">
-        <v>-0.003595409003941113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01161513933047792</v>
+      </c>
+      <c r="E40">
+        <v>-0.01994472899421956</v>
+      </c>
+      <c r="F40">
+        <v>-0.05677852113877731</v>
+      </c>
+      <c r="G40">
+        <v>0.05581763632227682</v>
+      </c>
+      <c r="H40">
+        <v>-0.09960401613251263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04013948678136427</v>
+        <v>0.04331078991997545</v>
       </c>
       <c r="C41">
-        <v>-0.005830197392913159</v>
+        <v>-0.001711411539016486</v>
       </c>
       <c r="D41">
-        <v>0.03878094616945654</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03494458624451421</v>
+      </c>
+      <c r="E41">
+        <v>-0.004611850931376098</v>
+      </c>
+      <c r="F41">
+        <v>-0.01446214337075387</v>
+      </c>
+      <c r="G41">
+        <v>0.01011970038802534</v>
+      </c>
+      <c r="H41">
+        <v>0.03413114462278301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0467519477314137</v>
+        <v>0.05803729964214799</v>
       </c>
       <c r="C43">
-        <v>-0.02647627426972377</v>
+        <v>0.01863046609146782</v>
       </c>
       <c r="D43">
-        <v>0.02008720094709776</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02594697744204393</v>
+      </c>
+      <c r="E43">
+        <v>-0.02027462090534759</v>
+      </c>
+      <c r="F43">
+        <v>0.01181866353803554</v>
+      </c>
+      <c r="G43">
+        <v>-0.01885639579345872</v>
+      </c>
+      <c r="H43">
+        <v>0.05251153142808521</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09081941137538037</v>
+        <v>0.09485012488769884</v>
       </c>
       <c r="C44">
-        <v>-0.09315810962407514</v>
+        <v>0.06559652769811142</v>
       </c>
       <c r="D44">
-        <v>0.08325027182266946</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05982855472469024</v>
+      </c>
+      <c r="E44">
+        <v>-0.09016221587173853</v>
+      </c>
+      <c r="F44">
+        <v>0.03944840165447847</v>
+      </c>
+      <c r="G44">
+        <v>0.02948231837451928</v>
+      </c>
+      <c r="H44">
+        <v>0.01938874032250298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02377157795397663</v>
+        <v>0.03290555216273205</v>
       </c>
       <c r="C46">
-        <v>-0.01399492952000154</v>
+        <v>0.01158173750707213</v>
       </c>
       <c r="D46">
-        <v>0.02207576739889098</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03316978775539799</v>
+      </c>
+      <c r="E46">
+        <v>-0.02911622468971169</v>
+      </c>
+      <c r="F46">
+        <v>0.01330201642261159</v>
+      </c>
+      <c r="G46">
+        <v>-0.005235091553547616</v>
+      </c>
+      <c r="H46">
+        <v>0.03838859490162919</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02951424234634848</v>
+        <v>0.03784794635517109</v>
       </c>
       <c r="C47">
-        <v>-0.02491603142993114</v>
+        <v>0.0204984987015068</v>
       </c>
       <c r="D47">
-        <v>0.01102213277993337</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.009822154086989308</v>
+      </c>
+      <c r="E47">
+        <v>-0.05065207906755848</v>
+      </c>
+      <c r="F47">
+        <v>0.00754569744491122</v>
+      </c>
+      <c r="G47">
+        <v>-0.04242403666247307</v>
+      </c>
+      <c r="H47">
+        <v>0.02227349897855482</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03138443942820961</v>
+        <v>0.03736593290751445</v>
       </c>
       <c r="C48">
-        <v>-0.01811101050745397</v>
+        <v>0.01154588237145859</v>
       </c>
       <c r="D48">
-        <v>0.03160742617522835</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01966266368002079</v>
+      </c>
+      <c r="E48">
+        <v>-0.04536068870922682</v>
+      </c>
+      <c r="F48">
+        <v>-0.0007221649933664485</v>
+      </c>
+      <c r="G48">
+        <v>0.009881521133802433</v>
+      </c>
+      <c r="H48">
+        <v>0.0404107867654749</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1613960233700477</v>
+        <v>0.1895587825971051</v>
       </c>
       <c r="C49">
-        <v>-0.06348875985325639</v>
+        <v>0.03697199420396225</v>
       </c>
       <c r="D49">
-        <v>-0.01683305408748224</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02764709199912831</v>
+      </c>
+      <c r="E49">
+        <v>0.1497549605720146</v>
+      </c>
+      <c r="F49">
+        <v>0.08297721466538141</v>
+      </c>
+      <c r="G49">
+        <v>-0.04550519599923349</v>
+      </c>
+      <c r="H49">
+        <v>-0.2379640316252864</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03817796633053431</v>
+        <v>0.04573713978557331</v>
       </c>
       <c r="C50">
-        <v>-0.0261930755618535</v>
+        <v>0.01895633194225879</v>
       </c>
       <c r="D50">
-        <v>0.03752182710241446</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03068048459124398</v>
+      </c>
+      <c r="E50">
+        <v>-0.05118792075356423</v>
+      </c>
+      <c r="F50">
+        <v>0.01003057797206609</v>
+      </c>
+      <c r="G50">
+        <v>-0.02474876882701389</v>
+      </c>
+      <c r="H50">
+        <v>0.06110712045776914</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02564833482662643</v>
+        <v>0.03011611226043768</v>
       </c>
       <c r="C51">
-        <v>-0.009164425639898893</v>
+        <v>0.004495038657121578</v>
       </c>
       <c r="D51">
-        <v>0.01707755172946057</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01367984469764949</v>
+      </c>
+      <c r="E51">
+        <v>-0.01342706970356665</v>
+      </c>
+      <c r="F51">
+        <v>0.01857842143824675</v>
+      </c>
+      <c r="G51">
+        <v>-0.002656017674707738</v>
+      </c>
+      <c r="H51">
+        <v>-0.00306288171560605</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1502850998612247</v>
+        <v>0.162086621725938</v>
       </c>
       <c r="C53">
-        <v>-0.08033758503243284</v>
+        <v>0.05322936554722681</v>
       </c>
       <c r="D53">
-        <v>0.02644591234610444</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01943026392069815</v>
+      </c>
+      <c r="E53">
+        <v>0.02746412805689392</v>
+      </c>
+      <c r="F53">
+        <v>0.01933862786624295</v>
+      </c>
+      <c r="G53">
+        <v>-0.02650068658130835</v>
+      </c>
+      <c r="H53">
+        <v>0.176542727808459</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05469183827841745</v>
+        <v>0.05772937278315456</v>
       </c>
       <c r="C54">
-        <v>-0.02745515688947261</v>
+        <v>0.01534834199542845</v>
       </c>
       <c r="D54">
-        <v>0.02285975656900181</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01793581402228188</v>
+      </c>
+      <c r="E54">
+        <v>-0.05099952485019971</v>
+      </c>
+      <c r="F54">
+        <v>0.00420105342530543</v>
+      </c>
+      <c r="G54">
+        <v>0.00968555943754631</v>
+      </c>
+      <c r="H54">
+        <v>0.04703901633124577</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09906710535592453</v>
+        <v>0.1036485315977812</v>
       </c>
       <c r="C55">
-        <v>-0.05559071275477011</v>
+        <v>0.03502134347461119</v>
       </c>
       <c r="D55">
-        <v>0.02766072860626108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02329181619174123</v>
+      </c>
+      <c r="E55">
+        <v>-0.01766788036012662</v>
+      </c>
+      <c r="F55">
+        <v>0.01416322142530879</v>
+      </c>
+      <c r="G55">
+        <v>-0.02184658026458666</v>
+      </c>
+      <c r="H55">
+        <v>0.1513957133190732</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.147733380479634</v>
+        <v>0.1616241263558889</v>
       </c>
       <c r="C56">
-        <v>-0.09322936732528046</v>
+        <v>0.06502507203150887</v>
       </c>
       <c r="D56">
-        <v>0.02495455125311792</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01993696740833346</v>
+      </c>
+      <c r="E56">
+        <v>0.02575567767834694</v>
+      </c>
+      <c r="F56">
+        <v>0.03671116427048493</v>
+      </c>
+      <c r="G56">
+        <v>-0.04095720434306686</v>
+      </c>
+      <c r="H56">
+        <v>0.1763436347754331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1270279979549465</v>
+        <v>0.09804226848629059</v>
       </c>
       <c r="C58">
-        <v>-0.009301026513200927</v>
+        <v>-0.035939215819029</v>
       </c>
       <c r="D58">
-        <v>0.03121179945158161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.04312873240583077</v>
+      </c>
+      <c r="E58">
+        <v>-0.1699523731448157</v>
+      </c>
+      <c r="F58">
+        <v>-0.0205125593153825</v>
+      </c>
+      <c r="G58">
+        <v>-0.03287616747157011</v>
+      </c>
+      <c r="H58">
+        <v>-0.239261061773501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1193454286226209</v>
+        <v>0.1373703796590044</v>
       </c>
       <c r="C59">
-        <v>-0.08164881431696576</v>
+        <v>0.08901610238893724</v>
       </c>
       <c r="D59">
-        <v>-0.3524547973867443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3630430698342145</v>
+      </c>
+      <c r="E59">
+        <v>-0.0251342278427792</v>
+      </c>
+      <c r="F59">
+        <v>0.0191273879183109</v>
+      </c>
+      <c r="G59">
+        <v>-0.02363640804748689</v>
+      </c>
+      <c r="H59">
+        <v>-0.00499230097284816</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2012209384883846</v>
+        <v>0.2330784990902262</v>
       </c>
       <c r="C60">
-        <v>-0.106250459688791</v>
+        <v>0.07004467146259942</v>
       </c>
       <c r="D60">
-        <v>0.01144371562711298</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04095684662894346</v>
+      </c>
+      <c r="E60">
+        <v>0.09339379597313718</v>
+      </c>
+      <c r="F60">
+        <v>0.07047319924127528</v>
+      </c>
+      <c r="G60">
+        <v>0.03048747157399965</v>
+      </c>
+      <c r="H60">
+        <v>-0.1540231574410215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07902991776997957</v>
+        <v>0.08868495897112545</v>
       </c>
       <c r="C61">
-        <v>-0.0538020725979084</v>
+        <v>0.03825256621349343</v>
       </c>
       <c r="D61">
-        <v>0.04299910382529341</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04090551331793055</v>
+      </c>
+      <c r="E61">
+        <v>0.002557154148018395</v>
+      </c>
+      <c r="F61">
+        <v>0.002278030571744074</v>
+      </c>
+      <c r="G61">
+        <v>-0.004900008222773699</v>
+      </c>
+      <c r="H61">
+        <v>0.06578797417418041</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1278336627683848</v>
+        <v>0.1390325516919575</v>
       </c>
       <c r="C62">
-        <v>-0.06687292796780225</v>
+        <v>0.04111564965406203</v>
       </c>
       <c r="D62">
-        <v>0.03252503501591391</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03272987628229809</v>
+      </c>
+      <c r="E62">
+        <v>0.06264479511929857</v>
+      </c>
+      <c r="F62">
+        <v>0.01645562668205846</v>
+      </c>
+      <c r="G62">
+        <v>0.00343884672141279</v>
+      </c>
+      <c r="H62">
+        <v>0.1954869965433157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05031446663055073</v>
+        <v>0.05020051349345011</v>
       </c>
       <c r="C63">
-        <v>-0.02526499176955833</v>
+        <v>0.01303051692038694</v>
       </c>
       <c r="D63">
-        <v>0.02273625910659292</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02109999568753616</v>
+      </c>
+      <c r="E63">
+        <v>-0.05242428860882799</v>
+      </c>
+      <c r="F63">
+        <v>-0.01519931128480351</v>
+      </c>
+      <c r="G63">
+        <v>0.02003259296084292</v>
+      </c>
+      <c r="H63">
+        <v>0.05694170265102954</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1024209037617417</v>
+        <v>0.1079104581397642</v>
       </c>
       <c r="C64">
-        <v>-0.02362043982487988</v>
+        <v>0.004237602169018787</v>
       </c>
       <c r="D64">
-        <v>0.06087906771311287</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04046723890890838</v>
+      </c>
+      <c r="E64">
+        <v>-0.04920730368801813</v>
+      </c>
+      <c r="F64">
+        <v>0.04246549692904687</v>
+      </c>
+      <c r="G64">
+        <v>0.0468778662141987</v>
+      </c>
+      <c r="H64">
+        <v>0.06248561894866457</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1210792185793851</v>
+        <v>0.1259603931604719</v>
       </c>
       <c r="C65">
-        <v>-0.06198106254290511</v>
+        <v>0.03948030703437319</v>
       </c>
       <c r="D65">
-        <v>-0.0149848707013032</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.00478521307608991</v>
+      </c>
+      <c r="E65">
+        <v>-0.01621422955575806</v>
+      </c>
+      <c r="F65">
+        <v>0.04994994392834854</v>
+      </c>
+      <c r="G65">
+        <v>0.06232092740384936</v>
+      </c>
+      <c r="H65">
+        <v>-0.1395223625888331</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1430379820579388</v>
+        <v>0.1543516695277297</v>
       </c>
       <c r="C66">
-        <v>-0.08154076238113581</v>
+        <v>0.04952990100014033</v>
       </c>
       <c r="D66">
-        <v>0.1087924146452584</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09421860762732776</v>
+      </c>
+      <c r="E66">
+        <v>0.03068789292483523</v>
+      </c>
+      <c r="F66">
+        <v>0.01682437030402421</v>
+      </c>
+      <c r="G66">
+        <v>0.03988968012864209</v>
+      </c>
+      <c r="H66">
+        <v>0.1236719154231298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07106270722598909</v>
+        <v>0.083610546984837</v>
       </c>
       <c r="C67">
-        <v>-0.01498766322387646</v>
+        <v>0.006150383173592842</v>
       </c>
       <c r="D67">
-        <v>0.0246869691854054</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03101483799843515</v>
+      </c>
+      <c r="E67">
+        <v>-0.02398273176573331</v>
+      </c>
+      <c r="F67">
+        <v>0.01705846989226709</v>
+      </c>
+      <c r="G67">
+        <v>-0.01276420687902579</v>
+      </c>
+      <c r="H67">
+        <v>0.03572157040425972</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05854177762258161</v>
+        <v>0.0573743697613838</v>
       </c>
       <c r="C68">
-        <v>-0.05181321134412143</v>
+        <v>0.0598871932113362</v>
       </c>
       <c r="D68">
-        <v>-0.2515258691860031</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2686133265738489</v>
+      </c>
+      <c r="E68">
+        <v>-0.03714872915682329</v>
+      </c>
+      <c r="F68">
+        <v>0.01241862683967512</v>
+      </c>
+      <c r="G68">
+        <v>-0.01573516755830737</v>
+      </c>
+      <c r="H68">
+        <v>0.003003574273957409</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05148813667322432</v>
+        <v>0.05329558787519876</v>
       </c>
       <c r="C69">
-        <v>-0.01825526088958756</v>
+        <v>0.006518250200129908</v>
       </c>
       <c r="D69">
-        <v>0.01880126943990069</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01498738462029531</v>
+      </c>
+      <c r="E69">
+        <v>-0.02397228296893508</v>
+      </c>
+      <c r="F69">
+        <v>-0.008959091069910148</v>
+      </c>
+      <c r="G69">
+        <v>-0.02241058559265985</v>
+      </c>
+      <c r="H69">
+        <v>0.04771464871224981</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.00473183168980747</v>
+        <v>0.02732753779940594</v>
       </c>
       <c r="C70">
-        <v>0.006422214021930012</v>
+        <v>-0.001131606331450708</v>
       </c>
       <c r="D70">
-        <v>-0.001352766237029335</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.005097878501288211</v>
+      </c>
+      <c r="E70">
+        <v>0.02207083903963884</v>
+      </c>
+      <c r="F70">
+        <v>0.02154261913458911</v>
+      </c>
+      <c r="G70">
+        <v>-0.01981458021857357</v>
+      </c>
+      <c r="H70">
+        <v>-0.03304897736358076</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05849660896818397</v>
+        <v>0.06046270452917227</v>
       </c>
       <c r="C71">
-        <v>-0.05194542561556077</v>
+        <v>0.06418824700354527</v>
       </c>
       <c r="D71">
-        <v>-0.2923636950419817</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2948600962815363</v>
+      </c>
+      <c r="E71">
+        <v>-0.03430489935987604</v>
+      </c>
+      <c r="F71">
+        <v>0.04055720603177406</v>
+      </c>
+      <c r="G71">
+        <v>-0.004974558497359557</v>
+      </c>
+      <c r="H71">
+        <v>0.008455750499814372</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1401620656908302</v>
+        <v>0.1456721272536076</v>
       </c>
       <c r="C72">
-        <v>-0.06813271826090816</v>
+        <v>0.03694122759057871</v>
       </c>
       <c r="D72">
-        <v>-0.006650962188023422</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008024400946123318</v>
+      </c>
+      <c r="E72">
+        <v>0.1129668973341919</v>
+      </c>
+      <c r="F72">
+        <v>-0.1554745194089122</v>
+      </c>
+      <c r="G72">
+        <v>0.1220356871845353</v>
+      </c>
+      <c r="H72">
+        <v>0.02340756397470265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2722442504709618</v>
+        <v>0.2874619741136055</v>
       </c>
       <c r="C73">
-        <v>-0.1148031980158566</v>
+        <v>0.04760047840357664</v>
       </c>
       <c r="D73">
-        <v>0.04889353477036675</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09988868664290973</v>
+      </c>
+      <c r="E73">
+        <v>0.2110843012320791</v>
+      </c>
+      <c r="F73">
+        <v>0.1237328050571059</v>
+      </c>
+      <c r="G73">
+        <v>-0.1336095682867186</v>
+      </c>
+      <c r="H73">
+        <v>-0.4894939300024221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07783304206267978</v>
+        <v>0.09125671257619519</v>
       </c>
       <c r="C74">
-        <v>-0.07738903681186417</v>
+        <v>0.06001579130085403</v>
       </c>
       <c r="D74">
-        <v>0.01422373479448797</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02933690474012786</v>
+      </c>
+      <c r="E74">
+        <v>0.006051480420702747</v>
+      </c>
+      <c r="F74">
+        <v>-0.0006986446510494521</v>
+      </c>
+      <c r="G74">
+        <v>-0.06241057621521552</v>
+      </c>
+      <c r="H74">
+        <v>0.1151574133082148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09418547868883431</v>
+        <v>0.1002144526752969</v>
       </c>
       <c r="C75">
-        <v>-0.05546247582079677</v>
+        <v>0.03017822302996327</v>
       </c>
       <c r="D75">
-        <v>0.01075526000541606</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01528083736796478</v>
+      </c>
+      <c r="E75">
+        <v>-0.009016790694294606</v>
+      </c>
+      <c r="F75">
+        <v>0.02497633566120836</v>
+      </c>
+      <c r="G75">
+        <v>-0.0291272449563226</v>
+      </c>
+      <c r="H75">
+        <v>0.1152174079264259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1283017693985015</v>
+        <v>0.1398591730396241</v>
       </c>
       <c r="C76">
-        <v>-0.08420258213886997</v>
+        <v>0.05784260653849942</v>
       </c>
       <c r="D76">
-        <v>0.05667158106693367</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05080342052441686</v>
+      </c>
+      <c r="E76">
+        <v>-0.02803522310932965</v>
+      </c>
+      <c r="F76">
+        <v>0.04577110984957939</v>
+      </c>
+      <c r="G76">
+        <v>-0.02520911598340111</v>
+      </c>
+      <c r="H76">
+        <v>0.1990823236175593</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1128823725305657</v>
+        <v>0.1085400017870409</v>
       </c>
       <c r="C77">
-        <v>-0.02172539479513143</v>
+        <v>-0.007454231277992703</v>
       </c>
       <c r="D77">
-        <v>0.05378020673965315</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02061958342135178</v>
+      </c>
+      <c r="E77">
+        <v>-0.04863965786668162</v>
+      </c>
+      <c r="F77">
+        <v>0.1054179710540966</v>
+      </c>
+      <c r="G77">
+        <v>0.894077663265887</v>
+      </c>
+      <c r="H77">
+        <v>-0.06478138063176042</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09976103890039728</v>
+        <v>0.1400303762489444</v>
       </c>
       <c r="C78">
-        <v>-0.04263984568591064</v>
+        <v>0.03580205824827591</v>
       </c>
       <c r="D78">
-        <v>0.0830785121003085</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08420705583399193</v>
+      </c>
+      <c r="E78">
+        <v>-0.05804562960339218</v>
+      </c>
+      <c r="F78">
+        <v>0.03786861023427926</v>
+      </c>
+      <c r="G78">
+        <v>0.08933125981600529</v>
+      </c>
+      <c r="H78">
+        <v>-0.04497984928052077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.145782491174739</v>
+        <v>0.1516241236125706</v>
       </c>
       <c r="C79">
-        <v>-0.07797996646552824</v>
+        <v>0.04492454368930584</v>
       </c>
       <c r="D79">
-        <v>0.03160244560937068</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02780477944530548</v>
+      </c>
+      <c r="E79">
+        <v>0.01450321140517461</v>
+      </c>
+      <c r="F79">
+        <v>0.02110385996583749</v>
+      </c>
+      <c r="G79">
+        <v>-0.04338468497436267</v>
+      </c>
+      <c r="H79">
+        <v>0.1742066392083521</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04477712868805922</v>
+        <v>0.04291622178628354</v>
       </c>
       <c r="C80">
-        <v>-0.01521401257646975</v>
+        <v>0.005692809671881701</v>
       </c>
       <c r="D80">
-        <v>0.02766888076692172</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0177873399492554</v>
+      </c>
+      <c r="E80">
+        <v>0.01210252525613421</v>
+      </c>
+      <c r="F80">
+        <v>-0.0005895470047262541</v>
+      </c>
+      <c r="G80">
+        <v>-0.03037108934914021</v>
+      </c>
+      <c r="H80">
+        <v>0.03391105034923316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1134233969879908</v>
+        <v>0.1200028515832781</v>
       </c>
       <c r="C81">
-        <v>-0.0647977671879406</v>
+        <v>0.03867666666345031</v>
       </c>
       <c r="D81">
-        <v>0.03350318184059368</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02341386777104117</v>
+      </c>
+      <c r="E81">
+        <v>-0.02367272891502301</v>
+      </c>
+      <c r="F81">
+        <v>0.01555452717754135</v>
+      </c>
+      <c r="G81">
+        <v>-0.06630522048438199</v>
+      </c>
+      <c r="H81">
+        <v>0.1474664222114359</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1302352084292132</v>
+        <v>0.1316637864170951</v>
       </c>
       <c r="C82">
-        <v>-0.08145290352848465</v>
+        <v>0.0521476774779014</v>
       </c>
       <c r="D82">
-        <v>0.01986646847222822</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02711512281287137</v>
+      </c>
+      <c r="E82">
+        <v>0.01413870545707895</v>
+      </c>
+      <c r="F82">
+        <v>0.05662942853335585</v>
+      </c>
+      <c r="G82">
+        <v>-0.06076145553412497</v>
+      </c>
+      <c r="H82">
+        <v>0.2108783309165638</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07399418251459659</v>
+        <v>0.08587613355218048</v>
       </c>
       <c r="C83">
-        <v>0.01093342386959757</v>
+        <v>-0.02445115944980938</v>
       </c>
       <c r="D83">
-        <v>0.02440763308448921</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03116802801308618</v>
+      </c>
+      <c r="E83">
+        <v>-0.02355211916610374</v>
+      </c>
+      <c r="F83">
+        <v>0.05401988721113897</v>
+      </c>
+      <c r="G83">
+        <v>-0.07248172098708848</v>
+      </c>
+      <c r="H83">
+        <v>-0.06019940272987013</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02796131107443942</v>
+        <v>0.03728162110216832</v>
       </c>
       <c r="C84">
-        <v>-0.02836021947339224</v>
+        <v>0.02254420402132873</v>
       </c>
       <c r="D84">
-        <v>0.03230727515350906</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03275784752871939</v>
+      </c>
+      <c r="E84">
+        <v>-0.03000111607238591</v>
+      </c>
+      <c r="F84">
+        <v>-0.05507667230515541</v>
+      </c>
+      <c r="G84">
+        <v>-0.06688385764415498</v>
+      </c>
+      <c r="H84">
+        <v>-0.002737117532657988</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1181009184114074</v>
+        <v>0.1209476202921229</v>
       </c>
       <c r="C85">
-        <v>-0.05730380483129116</v>
+        <v>0.02980596157732529</v>
       </c>
       <c r="D85">
-        <v>0.02389224102101079</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02236743482964636</v>
+      </c>
+      <c r="E85">
+        <v>-0.02368562881869127</v>
+      </c>
+      <c r="F85">
+        <v>0.04080520133794963</v>
+      </c>
+      <c r="G85">
+        <v>-0.03570791615840173</v>
+      </c>
+      <c r="H85">
+        <v>0.1519551368548565</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0499493441444582</v>
+        <v>0.05820803102996245</v>
       </c>
       <c r="C86">
-        <v>-0.03133621704210221</v>
+        <v>0.02000851242301795</v>
       </c>
       <c r="D86">
-        <v>0.02314771353174192</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02511989705415628</v>
+      </c>
+      <c r="E86">
+        <v>-0.06573223513405659</v>
+      </c>
+      <c r="F86">
+        <v>0.02513399404853744</v>
+      </c>
+      <c r="G86">
+        <v>-0.02385296837971704</v>
+      </c>
+      <c r="H86">
+        <v>-0.01357705576206472</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1167543699340434</v>
+        <v>0.1217890996552023</v>
       </c>
       <c r="C87">
-        <v>-0.07264929291877562</v>
+        <v>0.03853487632455278</v>
       </c>
       <c r="D87">
-        <v>0.07305682506256733</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07061161843830362</v>
+      </c>
+      <c r="E87">
+        <v>-0.02741593625338687</v>
+      </c>
+      <c r="F87">
+        <v>0.0002521813679321795</v>
+      </c>
+      <c r="G87">
+        <v>0.1312807653593946</v>
+      </c>
+      <c r="H87">
+        <v>-0.03810776584036281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05276250119223966</v>
+        <v>0.06039997490668747</v>
       </c>
       <c r="C88">
-        <v>-0.02953869318946075</v>
+        <v>0.01878332010002359</v>
       </c>
       <c r="D88">
-        <v>0.02034509041228839</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03340872671180772</v>
+      </c>
+      <c r="E88">
+        <v>-0.02233001403674413</v>
+      </c>
+      <c r="F88">
+        <v>0.005050954792259013</v>
+      </c>
+      <c r="G88">
+        <v>0.003486459517086655</v>
+      </c>
+      <c r="H88">
+        <v>0.05442352589010856</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08452847734908911</v>
+        <v>0.09486329773628537</v>
       </c>
       <c r="C89">
-        <v>-0.07176288021846415</v>
+        <v>0.08437105269240674</v>
       </c>
       <c r="D89">
-        <v>-0.3235988611436421</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3470498537118845</v>
+      </c>
+      <c r="E89">
+        <v>-0.07277191516640447</v>
+      </c>
+      <c r="F89">
+        <v>0.07971853242478477</v>
+      </c>
+      <c r="G89">
+        <v>-0.02708758128664867</v>
+      </c>
+      <c r="H89">
+        <v>0.01136902813700484</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07514045539273984</v>
+        <v>0.079722634091742</v>
       </c>
       <c r="C90">
-        <v>-0.06346094975751329</v>
+        <v>0.07110820391106927</v>
       </c>
       <c r="D90">
-        <v>-0.3210200694738326</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3063039915483766</v>
+      </c>
+      <c r="E90">
+        <v>-0.06135291196761506</v>
+      </c>
+      <c r="F90">
+        <v>-0.004000956086692325</v>
+      </c>
+      <c r="G90">
+        <v>-0.006220755538562883</v>
+      </c>
+      <c r="H90">
+        <v>0.004151185180233614</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08572064672213676</v>
+        <v>0.0899935576466855</v>
       </c>
       <c r="C91">
-        <v>-0.05738068708696239</v>
+        <v>0.03480351361576779</v>
       </c>
       <c r="D91">
-        <v>0.03540349919672458</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03222009789323931</v>
+      </c>
+      <c r="E91">
+        <v>-0.01340429318070036</v>
+      </c>
+      <c r="F91">
+        <v>0.005650023214789215</v>
+      </c>
+      <c r="G91">
+        <v>-0.05584479865066587</v>
+      </c>
+      <c r="H91">
+        <v>0.07563499907080272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07525629301329931</v>
+        <v>0.07973035780427087</v>
       </c>
       <c r="C92">
-        <v>-0.07420461985729325</v>
+        <v>0.0851823681203672</v>
       </c>
       <c r="D92">
-        <v>-0.3399368037071311</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3447858084195116</v>
+      </c>
+      <c r="E92">
+        <v>-0.04575206703206034</v>
+      </c>
+      <c r="F92">
+        <v>0.03890655446513166</v>
+      </c>
+      <c r="G92">
+        <v>0.01052396290592452</v>
+      </c>
+      <c r="H92">
+        <v>0.01664769572010461</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06467423005431233</v>
+        <v>0.07575427971145815</v>
       </c>
       <c r="C93">
-        <v>-0.06663219667646349</v>
+        <v>0.08143517172314343</v>
       </c>
       <c r="D93">
-        <v>-0.3127667467406838</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3040263583627401</v>
+      </c>
+      <c r="E93">
+        <v>-0.04018741883907612</v>
+      </c>
+      <c r="F93">
+        <v>0.03582601440069062</v>
+      </c>
+      <c r="G93">
+        <v>0.01566160969965026</v>
+      </c>
+      <c r="H93">
+        <v>-0.01146965362338536</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1312401694064201</v>
+        <v>0.1262944532591668</v>
       </c>
       <c r="C94">
-        <v>-0.05739935418281406</v>
+        <v>0.02182452917589014</v>
       </c>
       <c r="D94">
-        <v>0.04772536579686341</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04870417197996258</v>
+      </c>
+      <c r="E94">
+        <v>0.005046017212545697</v>
+      </c>
+      <c r="F94">
+        <v>0.0217082620272981</v>
+      </c>
+      <c r="G94">
+        <v>-0.06338459454940676</v>
+      </c>
+      <c r="H94">
+        <v>0.0951522120122964</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1184439672402779</v>
+        <v>0.1256884366774194</v>
       </c>
       <c r="C95">
-        <v>-0.03165695733477483</v>
+        <v>0.002845014047218501</v>
       </c>
       <c r="D95">
-        <v>0.06102708740646377</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07146315001405802</v>
+      </c>
+      <c r="E95">
+        <v>-0.01590180340694242</v>
+      </c>
+      <c r="F95">
+        <v>0.03928675955165009</v>
+      </c>
+      <c r="G95">
+        <v>0.02730522777930865</v>
+      </c>
+      <c r="H95">
+        <v>-0.06036836223363169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2204789315878865</v>
+        <v>0.2090759974860413</v>
       </c>
       <c r="C97">
-        <v>-0.05745827674834996</v>
+        <v>0.003001298010047972</v>
       </c>
       <c r="D97">
-        <v>-0.1133011456389701</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08688809256336667</v>
+      </c>
+      <c r="E97">
+        <v>0.3273607078948287</v>
+      </c>
+      <c r="F97">
+        <v>-0.8637710400764382</v>
+      </c>
+      <c r="G97">
+        <v>0.07358418042998953</v>
+      </c>
+      <c r="H97">
+        <v>0.01464995156576492</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2421199166150068</v>
+        <v>0.2744249409527381</v>
       </c>
       <c r="C98">
-        <v>-0.07600408036953323</v>
+        <v>0.03409436002177103</v>
       </c>
       <c r="D98">
-        <v>0.04741982515160307</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05906602926163734</v>
+      </c>
+      <c r="E98">
+        <v>0.1759964441532437</v>
+      </c>
+      <c r="F98">
+        <v>0.09597971629307903</v>
+      </c>
+      <c r="G98">
+        <v>-0.2163079454168372</v>
+      </c>
+      <c r="H98">
+        <v>-0.2494596276260281</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4614519733852301</v>
+        <v>0.290371437505468</v>
       </c>
       <c r="C99">
-        <v>0.8709461506531994</v>
+        <v>-0.9315942330340795</v>
       </c>
       <c r="D99">
-        <v>-0.05282717889230765</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1379784387311724</v>
+      </c>
+      <c r="E99">
+        <v>-0.06835515523963462</v>
+      </c>
+      <c r="F99">
+        <v>0.04571842718984979</v>
+      </c>
+      <c r="G99">
+        <v>-0.02451526805338978</v>
+      </c>
+      <c r="H99">
+        <v>0.06500596535261562</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03940750229789266</v>
+        <v>0.0481809752477551</v>
       </c>
       <c r="C101">
-        <v>-0.0315987528221623</v>
+        <v>0.02674091992311643</v>
       </c>
       <c r="D101">
-        <v>0.004803586230786649</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.007185694349383921</v>
+      </c>
+      <c r="E101">
+        <v>-0.05304944904470781</v>
+      </c>
+      <c r="F101">
+        <v>0.0001465095534572883</v>
+      </c>
+      <c r="G101">
+        <v>-0.01235686837496014</v>
+      </c>
+      <c r="H101">
+        <v>0.07808832384855301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
